--- a/2022/Samsung/MARCH/14.03.2022/SAMSUNG Bank Statement March-2022.xlsx
+++ b/2022/Samsung/MARCH/14.03.2022/SAMSUNG Bank Statement March-2022.xlsx
@@ -184,6 +184,20 @@
 Pin=40
 Papos=180
 Sandel=60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bed Pin</t>
         </r>
       </text>
     </comment>
@@ -710,9 +724,6 @@
     <t>Miking Cost</t>
   </si>
   <si>
-    <t>DSR Mobile Bill Feb'2022</t>
-  </si>
-  <si>
     <t>10.03.2022</t>
   </si>
   <si>
@@ -796,6 +807,9 @@
   </si>
   <si>
     <t>ASM=Sumon (M51)</t>
+  </si>
+  <si>
+    <t>Office Cost</t>
   </si>
 </sst>
 </file>
@@ -3055,6 +3069,12 @@
     <xf numFmtId="1" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="42" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3180,12 +3200,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="42" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3644,33 +3658,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="333"/>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
+      <c r="A1" s="335"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="334"/>
-      <c r="B2" s="331" t="s">
+      <c r="A2" s="336"/>
+      <c r="B2" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="334"/>
-      <c r="B3" s="332" t="s">
+      <c r="A3" s="336"/>
+      <c r="B3" s="334" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="332"/>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="334"/>
+      <c r="A4" s="336"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3702,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="334"/>
+      <c r="A5" s="336"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3706,7 +3720,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="334"/>
+      <c r="A6" s="336"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3718,7 +3732,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="334"/>
+      <c r="A7" s="336"/>
       <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
@@ -3737,7 +3751,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="334"/>
+      <c r="A8" s="336"/>
       <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
@@ -3756,7 +3770,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="334"/>
+      <c r="A9" s="336"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -3775,7 +3789,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="334"/>
+      <c r="A10" s="336"/>
       <c r="B10" s="26" t="s">
         <v>48</v>
       </c>
@@ -3794,7 +3808,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="334"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
@@ -3813,7 +3827,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="334"/>
+      <c r="A12" s="336"/>
       <c r="B12" s="26" t="s">
         <v>50</v>
       </c>
@@ -3832,7 +3846,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="334"/>
+      <c r="A13" s="336"/>
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
@@ -3851,7 +3865,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="334"/>
+      <c r="A14" s="336"/>
       <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
@@ -3870,7 +3884,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="334"/>
+      <c r="A15" s="336"/>
       <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
@@ -3889,7 +3903,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="334"/>
+      <c r="A16" s="336"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3902,7 +3916,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="334"/>
+      <c r="A17" s="336"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3915,7 +3929,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="334"/>
+      <c r="A18" s="336"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3928,7 +3942,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="334"/>
+      <c r="A19" s="336"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3941,7 +3955,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="334"/>
+      <c r="A20" s="336"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3954,7 +3968,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="334"/>
+      <c r="A21" s="336"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3967,7 +3981,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="334"/>
+      <c r="A22" s="336"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3980,7 +3994,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="334"/>
+      <c r="A23" s="336"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3993,7 +4007,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="334"/>
+      <c r="A24" s="336"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4006,7 +4020,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="334"/>
+      <c r="A25" s="336"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4019,7 +4033,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="334"/>
+      <c r="A26" s="336"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4032,7 +4046,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="334"/>
+      <c r="A27" s="336"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4045,7 +4059,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="334"/>
+      <c r="A28" s="336"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4058,7 +4072,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="334"/>
+      <c r="A29" s="336"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4071,7 +4085,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="334"/>
+      <c r="A30" s="336"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4084,7 +4098,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="334"/>
+      <c r="A31" s="336"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4097,7 +4111,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="334"/>
+      <c r="A32" s="336"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4110,7 +4124,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="334"/>
+      <c r="A33" s="336"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4123,7 +4137,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="334"/>
+      <c r="A34" s="336"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4136,7 +4150,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="334"/>
+      <c r="A35" s="336"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4149,7 +4163,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="334"/>
+      <c r="A36" s="336"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4162,7 +4176,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="334"/>
+      <c r="A37" s="336"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4175,7 +4189,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="334"/>
+      <c r="A38" s="336"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4188,7 +4202,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="334"/>
+      <c r="A39" s="336"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4201,7 +4215,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="334"/>
+      <c r="A40" s="336"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4214,7 +4228,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="334"/>
+      <c r="A41" s="336"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4227,7 +4241,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="334"/>
+      <c r="A42" s="336"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4240,7 +4254,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="334"/>
+      <c r="A43" s="336"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4253,7 +4267,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="334"/>
+      <c r="A44" s="336"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4266,7 +4280,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="334"/>
+      <c r="A45" s="336"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4279,7 +4293,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="334"/>
+      <c r="A46" s="336"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4292,7 +4306,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="334"/>
+      <c r="A47" s="336"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4305,7 +4319,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="334"/>
+      <c r="A48" s="336"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4318,7 +4332,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="334"/>
+      <c r="A49" s="336"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4331,7 +4345,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="334"/>
+      <c r="A50" s="336"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4344,7 +4358,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="334"/>
+      <c r="A51" s="336"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4357,7 +4371,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="334"/>
+      <c r="A52" s="336"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4370,7 +4384,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="334"/>
+      <c r="A53" s="336"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4383,7 +4397,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="334"/>
+      <c r="A54" s="336"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4396,7 +4410,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="334"/>
+      <c r="A55" s="336"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4408,7 +4422,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="334"/>
+      <c r="A56" s="336"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4420,7 +4434,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="334"/>
+      <c r="A57" s="336"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4432,7 +4446,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="334"/>
+      <c r="A58" s="336"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4444,7 +4458,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="334"/>
+      <c r="A59" s="336"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4456,7 +4470,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="334"/>
+      <c r="A60" s="336"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4468,7 +4482,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="334"/>
+      <c r="A61" s="336"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4480,7 +4494,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="334"/>
+      <c r="A62" s="336"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4492,7 +4506,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="334"/>
+      <c r="A63" s="336"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4504,7 +4518,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="334"/>
+      <c r="A64" s="336"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4516,7 +4530,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="334"/>
+      <c r="A65" s="336"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4528,7 +4542,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="334"/>
+      <c r="A66" s="336"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4540,7 +4554,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="334"/>
+      <c r="A67" s="336"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4552,7 +4566,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="334"/>
+      <c r="A68" s="336"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4564,7 +4578,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="334"/>
+      <c r="A69" s="336"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4576,7 +4590,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="334"/>
+      <c r="A70" s="336"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4588,7 +4602,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="334"/>
+      <c r="A71" s="336"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4600,7 +4614,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="334"/>
+      <c r="A72" s="336"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4612,7 +4626,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="334"/>
+      <c r="A73" s="336"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4624,7 +4638,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="334"/>
+      <c r="A74" s="336"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4636,7 +4650,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="334"/>
+      <c r="A75" s="336"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4648,7 +4662,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="334"/>
+      <c r="A76" s="336"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4660,7 +4674,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="334"/>
+      <c r="A77" s="336"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4672,7 +4686,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="334"/>
+      <c r="A78" s="336"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4684,7 +4698,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="334"/>
+      <c r="A79" s="336"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4696,7 +4710,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="334"/>
+      <c r="A80" s="336"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4708,7 +4722,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="334"/>
+      <c r="A81" s="336"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4720,7 +4734,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="334"/>
+      <c r="A82" s="336"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4732,7 +4746,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="334"/>
+      <c r="A83" s="336"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4967,10 +4981,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="261" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" s="261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="261">
         <v>500</v>
@@ -4978,10 +4992,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="261" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" s="261" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="261">
         <v>3000</v>
@@ -4989,7 +5003,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="261" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="261" t="s">
         <v>169</v>
@@ -5000,7 +5014,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="308" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="261">
         <v>0</v>
@@ -5009,7 +5023,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="261" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="261" t="s">
         <v>90</v>
@@ -5020,10 +5034,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="261" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="261" t="s">
         <v>190</v>
-      </c>
-      <c r="B24" s="261" t="s">
-        <v>191</v>
       </c>
       <c r="C24" s="261">
         <v>1000</v>
@@ -5448,33 +5462,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="333"/>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
+      <c r="A1" s="335"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="334"/>
-      <c r="B2" s="331" t="s">
+      <c r="A2" s="336"/>
+      <c r="B2" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="334"/>
-      <c r="B3" s="332" t="s">
+      <c r="A3" s="336"/>
+      <c r="B3" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="332"/>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="334"/>
+      <c r="A4" s="336"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +5506,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="334"/>
+      <c r="A5" s="336"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5510,7 +5524,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="334"/>
+      <c r="A6" s="336"/>
       <c r="B6" s="26"/>
       <c r="C6" s="245"/>
       <c r="D6" s="245"/>
@@ -5522,7 +5536,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="334"/>
+      <c r="A7" s="336"/>
       <c r="B7" s="26" t="s">
         <v>136</v>
       </c>
@@ -5540,7 +5554,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="334"/>
+      <c r="A8" s="336"/>
       <c r="B8" s="26" t="s">
         <v>146</v>
       </c>
@@ -5560,7 +5574,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="334"/>
+      <c r="A9" s="336"/>
       <c r="B9" s="26" t="s">
         <v>152</v>
       </c>
@@ -5578,7 +5592,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="334"/>
+      <c r="A10" s="336"/>
       <c r="B10" s="26"/>
       <c r="C10" s="247"/>
       <c r="D10" s="247"/>
@@ -5590,7 +5604,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="334"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="26" t="s">
         <v>156</v>
       </c>
@@ -5608,7 +5622,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="334"/>
+      <c r="A12" s="336"/>
       <c r="B12" s="26" t="s">
         <v>158</v>
       </c>
@@ -5628,7 +5642,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="334"/>
+      <c r="A13" s="336"/>
       <c r="B13" s="26" t="s">
         <v>161</v>
       </c>
@@ -5648,7 +5662,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="334"/>
+      <c r="A14" s="336"/>
       <c r="B14" s="26" t="s">
         <v>166</v>
       </c>
@@ -5666,7 +5680,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="334"/>
+      <c r="A15" s="336"/>
       <c r="B15" s="26" t="s">
         <v>170</v>
       </c>
@@ -5684,9 +5698,9 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="334"/>
+      <c r="A16" s="336"/>
       <c r="B16" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="245">
         <v>321220</v>
@@ -5702,9 +5716,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="334"/>
+      <c r="A17" s="336"/>
       <c r="B17" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="245">
         <v>0</v>
@@ -5720,9 +5734,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="334"/>
+      <c r="A18" s="336"/>
       <c r="B18" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="245">
         <v>3300000</v>
@@ -5738,9 +5752,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="334"/>
+      <c r="A19" s="336"/>
       <c r="B19" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="245">
         <v>0</v>
@@ -5756,7 +5770,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="334"/>
+      <c r="A20" s="336"/>
       <c r="B20" s="26"/>
       <c r="C20" s="245"/>
       <c r="D20" s="245"/>
@@ -5768,7 +5782,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="334"/>
+      <c r="A21" s="336"/>
       <c r="B21" s="26"/>
       <c r="C21" s="245"/>
       <c r="D21" s="245"/>
@@ -5780,7 +5794,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="334"/>
+      <c r="A22" s="336"/>
       <c r="B22" s="26"/>
       <c r="C22" s="245"/>
       <c r="D22" s="245"/>
@@ -5792,7 +5806,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="334"/>
+      <c r="A23" s="336"/>
       <c r="B23" s="26"/>
       <c r="C23" s="245"/>
       <c r="D23" s="245"/>
@@ -5804,7 +5818,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="334"/>
+      <c r="A24" s="336"/>
       <c r="B24" s="26"/>
       <c r="C24" s="245"/>
       <c r="D24" s="245"/>
@@ -5816,7 +5830,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="334"/>
+      <c r="A25" s="336"/>
       <c r="B25" s="26"/>
       <c r="C25" s="245"/>
       <c r="D25" s="245"/>
@@ -5828,7 +5842,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="334"/>
+      <c r="A26" s="336"/>
       <c r="B26" s="26"/>
       <c r="C26" s="245"/>
       <c r="D26" s="245"/>
@@ -5840,7 +5854,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="334"/>
+      <c r="A27" s="336"/>
       <c r="B27" s="26"/>
       <c r="C27" s="245"/>
       <c r="D27" s="245"/>
@@ -5852,7 +5866,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="334"/>
+      <c r="A28" s="336"/>
       <c r="B28" s="26"/>
       <c r="C28" s="245"/>
       <c r="D28" s="245"/>
@@ -5864,7 +5878,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="334"/>
+      <c r="A29" s="336"/>
       <c r="B29" s="26"/>
       <c r="C29" s="245"/>
       <c r="D29" s="245"/>
@@ -5876,7 +5890,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="334"/>
+      <c r="A30" s="336"/>
       <c r="B30" s="26"/>
       <c r="C30" s="245"/>
       <c r="D30" s="245"/>
@@ -5888,7 +5902,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="334"/>
+      <c r="A31" s="336"/>
       <c r="B31" s="26"/>
       <c r="C31" s="245"/>
       <c r="D31" s="245"/>
@@ -5900,7 +5914,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="334"/>
+      <c r="A32" s="336"/>
       <c r="B32" s="26"/>
       <c r="C32" s="245"/>
       <c r="D32" s="245"/>
@@ -5912,7 +5926,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="334"/>
+      <c r="A33" s="336"/>
       <c r="B33" s="26"/>
       <c r="C33" s="245"/>
       <c r="D33" s="247"/>
@@ -5924,7 +5938,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="334"/>
+      <c r="A34" s="336"/>
       <c r="B34" s="26"/>
       <c r="C34" s="245"/>
       <c r="D34" s="245"/>
@@ -5936,7 +5950,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="334"/>
+      <c r="A35" s="336"/>
       <c r="B35" s="26"/>
       <c r="C35" s="245"/>
       <c r="D35" s="245"/>
@@ -5948,7 +5962,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="334"/>
+      <c r="A36" s="336"/>
       <c r="B36" s="26"/>
       <c r="C36" s="245"/>
       <c r="D36" s="245"/>
@@ -5960,7 +5974,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="334"/>
+      <c r="A37" s="336"/>
       <c r="B37" s="26"/>
       <c r="C37" s="245"/>
       <c r="D37" s="245"/>
@@ -5972,7 +5986,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="334"/>
+      <c r="A38" s="336"/>
       <c r="B38" s="26"/>
       <c r="C38" s="245"/>
       <c r="D38" s="245"/>
@@ -5984,7 +5998,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="334"/>
+      <c r="A39" s="336"/>
       <c r="B39" s="26"/>
       <c r="C39" s="245"/>
       <c r="D39" s="245"/>
@@ -5996,7 +6010,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="334"/>
+      <c r="A40" s="336"/>
       <c r="B40" s="26"/>
       <c r="C40" s="245"/>
       <c r="D40" s="245"/>
@@ -6008,7 +6022,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="334"/>
+      <c r="A41" s="336"/>
       <c r="B41" s="26"/>
       <c r="C41" s="245"/>
       <c r="D41" s="245"/>
@@ -6020,7 +6034,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="334"/>
+      <c r="A42" s="336"/>
       <c r="B42" s="26"/>
       <c r="C42" s="245"/>
       <c r="D42" s="245"/>
@@ -6032,7 +6046,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="334"/>
+      <c r="A43" s="336"/>
       <c r="B43" s="26"/>
       <c r="C43" s="245"/>
       <c r="D43" s="245"/>
@@ -6044,7 +6058,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="334"/>
+      <c r="A44" s="336"/>
       <c r="B44" s="26"/>
       <c r="C44" s="245"/>
       <c r="D44" s="245"/>
@@ -6056,7 +6070,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="334"/>
+      <c r="A45" s="336"/>
       <c r="B45" s="26"/>
       <c r="C45" s="245"/>
       <c r="D45" s="245"/>
@@ -6068,7 +6082,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="334"/>
+      <c r="A46" s="336"/>
       <c r="B46" s="26"/>
       <c r="C46" s="245"/>
       <c r="D46" s="245"/>
@@ -6080,7 +6094,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="334"/>
+      <c r="A47" s="336"/>
       <c r="B47" s="26"/>
       <c r="C47" s="245"/>
       <c r="D47" s="245"/>
@@ -6092,7 +6106,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="334"/>
+      <c r="A48" s="336"/>
       <c r="B48" s="26"/>
       <c r="C48" s="245"/>
       <c r="D48" s="245"/>
@@ -6104,7 +6118,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="334"/>
+      <c r="A49" s="336"/>
       <c r="B49" s="26"/>
       <c r="C49" s="245"/>
       <c r="D49" s="245"/>
@@ -6116,7 +6130,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="334"/>
+      <c r="A50" s="336"/>
       <c r="B50" s="26"/>
       <c r="C50" s="245"/>
       <c r="D50" s="245"/>
@@ -6128,7 +6142,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="334"/>
+      <c r="A51" s="336"/>
       <c r="B51" s="26"/>
       <c r="C51" s="245"/>
       <c r="D51" s="245"/>
@@ -6140,7 +6154,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="334"/>
+      <c r="A52" s="336"/>
       <c r="B52" s="26"/>
       <c r="C52" s="245"/>
       <c r="D52" s="245"/>
@@ -6152,7 +6166,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="334"/>
+      <c r="A53" s="336"/>
       <c r="B53" s="26"/>
       <c r="C53" s="245"/>
       <c r="D53" s="245"/>
@@ -6164,7 +6178,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="334"/>
+      <c r="A54" s="336"/>
       <c r="B54" s="26"/>
       <c r="C54" s="245"/>
       <c r="D54" s="245"/>
@@ -6176,7 +6190,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="334"/>
+      <c r="A55" s="336"/>
       <c r="B55" s="26"/>
       <c r="C55" s="245"/>
       <c r="D55" s="245"/>
@@ -6187,7 +6201,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="334"/>
+      <c r="A56" s="336"/>
       <c r="B56" s="26"/>
       <c r="C56" s="245"/>
       <c r="D56" s="245"/>
@@ -6198,7 +6212,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="334"/>
+      <c r="A57" s="336"/>
       <c r="B57" s="26"/>
       <c r="C57" s="245"/>
       <c r="D57" s="245"/>
@@ -6209,7 +6223,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="334"/>
+      <c r="A58" s="336"/>
       <c r="B58" s="26"/>
       <c r="C58" s="245"/>
       <c r="D58" s="245"/>
@@ -6220,7 +6234,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="334"/>
+      <c r="A59" s="336"/>
       <c r="B59" s="26"/>
       <c r="C59" s="245"/>
       <c r="D59" s="245"/>
@@ -6231,7 +6245,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="334"/>
+      <c r="A60" s="336"/>
       <c r="B60" s="26"/>
       <c r="C60" s="245"/>
       <c r="D60" s="245"/>
@@ -6242,7 +6256,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="334"/>
+      <c r="A61" s="336"/>
       <c r="B61" s="26"/>
       <c r="C61" s="245"/>
       <c r="D61" s="245"/>
@@ -6253,7 +6267,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="334"/>
+      <c r="A62" s="336"/>
       <c r="B62" s="26"/>
       <c r="C62" s="245"/>
       <c r="D62" s="245"/>
@@ -6264,7 +6278,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="334"/>
+      <c r="A63" s="336"/>
       <c r="B63" s="26"/>
       <c r="C63" s="245"/>
       <c r="D63" s="245"/>
@@ -6275,7 +6289,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="334"/>
+      <c r="A64" s="336"/>
       <c r="B64" s="26"/>
       <c r="C64" s="245"/>
       <c r="D64" s="245"/>
@@ -6286,7 +6300,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="334"/>
+      <c r="A65" s="336"/>
       <c r="B65" s="26"/>
       <c r="C65" s="245"/>
       <c r="D65" s="245"/>
@@ -6297,7 +6311,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="334"/>
+      <c r="A66" s="336"/>
       <c r="B66" s="26"/>
       <c r="C66" s="245"/>
       <c r="D66" s="245"/>
@@ -6308,7 +6322,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="334"/>
+      <c r="A67" s="336"/>
       <c r="B67" s="26"/>
       <c r="C67" s="245"/>
       <c r="D67" s="245"/>
@@ -6319,7 +6333,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="334"/>
+      <c r="A68" s="336"/>
       <c r="B68" s="26"/>
       <c r="C68" s="245"/>
       <c r="D68" s="245"/>
@@ -6330,7 +6344,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="334"/>
+      <c r="A69" s="336"/>
       <c r="B69" s="26"/>
       <c r="C69" s="245"/>
       <c r="D69" s="245"/>
@@ -6341,7 +6355,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="334"/>
+      <c r="A70" s="336"/>
       <c r="B70" s="26"/>
       <c r="C70" s="245"/>
       <c r="D70" s="245"/>
@@ -6352,7 +6366,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="334"/>
+      <c r="A71" s="336"/>
       <c r="B71" s="26"/>
       <c r="C71" s="245"/>
       <c r="D71" s="245"/>
@@ -6363,7 +6377,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="334"/>
+      <c r="A72" s="336"/>
       <c r="B72" s="26"/>
       <c r="C72" s="245"/>
       <c r="D72" s="245"/>
@@ -6374,7 +6388,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="334"/>
+      <c r="A73" s="336"/>
       <c r="B73" s="26"/>
       <c r="C73" s="245"/>
       <c r="D73" s="245"/>
@@ -6385,7 +6399,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="334"/>
+      <c r="A74" s="336"/>
       <c r="B74" s="26"/>
       <c r="C74" s="245"/>
       <c r="D74" s="245"/>
@@ -6396,7 +6410,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="334"/>
+      <c r="A75" s="336"/>
       <c r="B75" s="26"/>
       <c r="C75" s="245"/>
       <c r="D75" s="245"/>
@@ -6407,7 +6421,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="334"/>
+      <c r="A76" s="336"/>
       <c r="B76" s="26"/>
       <c r="C76" s="245"/>
       <c r="D76" s="245"/>
@@ -6418,7 +6432,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="334"/>
+      <c r="A77" s="336"/>
       <c r="B77" s="26"/>
       <c r="C77" s="245"/>
       <c r="D77" s="245"/>
@@ -6429,7 +6443,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="334"/>
+      <c r="A78" s="336"/>
       <c r="B78" s="26"/>
       <c r="C78" s="245"/>
       <c r="D78" s="245"/>
@@ -6440,7 +6454,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="334"/>
+      <c r="A79" s="336"/>
       <c r="B79" s="26"/>
       <c r="C79" s="245"/>
       <c r="D79" s="245"/>
@@ -6452,7 +6466,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="334"/>
+      <c r="A80" s="336"/>
       <c r="B80" s="26"/>
       <c r="C80" s="245"/>
       <c r="D80" s="245"/>
@@ -6464,7 +6478,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="334"/>
+      <c r="A81" s="336"/>
       <c r="B81" s="26"/>
       <c r="C81" s="245"/>
       <c r="D81" s="245"/>
@@ -6476,7 +6490,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="334"/>
+      <c r="A82" s="336"/>
       <c r="B82" s="26"/>
       <c r="C82" s="245"/>
       <c r="D82" s="245"/>
@@ -6488,7 +6502,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="334"/>
+      <c r="A83" s="336"/>
       <c r="B83" s="31"/>
       <c r="C83" s="246">
         <f>SUM(C5:C72)</f>
@@ -6525,8 +6539,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6544,67 +6558,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="341" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="339"/>
-      <c r="K1" s="339"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="339"/>
-      <c r="N1" s="339"/>
-      <c r="O1" s="339"/>
-      <c r="P1" s="339"/>
-      <c r="Q1" s="339"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
+      <c r="O1" s="341"/>
+      <c r="P1" s="341"/>
+      <c r="Q1" s="341"/>
     </row>
     <row r="2" spans="1:24" s="63" customFormat="1" ht="18">
-      <c r="A2" s="340" t="s">
+      <c r="A2" s="342" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="340"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="340"/>
-      <c r="K2" s="340"/>
-      <c r="L2" s="340"/>
-      <c r="M2" s="340"/>
-      <c r="N2" s="340"/>
-      <c r="O2" s="340"/>
-      <c r="P2" s="340"/>
-      <c r="Q2" s="340"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="342"/>
+      <c r="K2" s="342"/>
+      <c r="L2" s="342"/>
+      <c r="M2" s="342"/>
+      <c r="N2" s="342"/>
+      <c r="O2" s="342"/>
+      <c r="P2" s="342"/>
+      <c r="Q2" s="342"/>
     </row>
     <row r="3" spans="1:24" s="64" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="343" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
-      <c r="I3" s="342"/>
-      <c r="J3" s="342"/>
-      <c r="K3" s="342"/>
-      <c r="L3" s="342"/>
-      <c r="M3" s="342"/>
-      <c r="N3" s="342"/>
-      <c r="O3" s="342"/>
-      <c r="P3" s="342"/>
-      <c r="Q3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="345"/>
       <c r="S3" s="48"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6613,52 +6627,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="346" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="346" t="s">
+      <c r="B4" s="348" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="337" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="335" t="s">
+      <c r="D4" s="337" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="337" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="335" t="s">
+      <c r="F4" s="337" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="335" t="s">
+      <c r="G4" s="337" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="335" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="335" t="s">
+      <c r="H4" s="337" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="337" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="337" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="337" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="337" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="337" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="335" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="335" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="335" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="335" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" s="335" t="s">
+      <c r="N4" s="337" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="337" t="s">
+      <c r="O4" s="339" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="348" t="s">
+      <c r="P4" s="350" t="s">
         <v>171</v>
       </c>
       <c r="Q4" s="122" t="s">
@@ -6671,22 +6685,22 @@
       <c r="W4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="65" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="345"/>
-      <c r="B5" s="347"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="336"/>
-      <c r="G5" s="336"/>
-      <c r="H5" s="336"/>
-      <c r="I5" s="336"/>
-      <c r="J5" s="336"/>
-      <c r="K5" s="336"/>
-      <c r="L5" s="336"/>
-      <c r="M5" s="336"/>
-      <c r="N5" s="336"/>
-      <c r="O5" s="338"/>
-      <c r="P5" s="349"/>
+      <c r="A5" s="347"/>
+      <c r="B5" s="349"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
+      <c r="K5" s="338"/>
+      <c r="L5" s="338"/>
+      <c r="M5" s="338"/>
+      <c r="N5" s="338"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="351"/>
       <c r="Q5" s="123" t="s">
         <v>40</v>
       </c>
@@ -6994,7 +7008,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="80"/>
       <c r="C14" s="73"/>
@@ -7032,7 +7046,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="80">
         <v>1000</v>
@@ -7066,7 +7080,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="73"/>
@@ -7098,17 +7112,23 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="80"/>
       <c r="C17" s="73"/>
-      <c r="D17" s="81"/>
+      <c r="D17" s="81">
+        <v>40</v>
+      </c>
       <c r="E17" s="81"/>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
       <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="I17" s="81">
+        <v>15</v>
+      </c>
+      <c r="J17" s="81">
+        <v>20</v>
+      </c>
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
       <c r="M17" s="81"/>
@@ -7117,7 +7137,7 @@
       <c r="P17" s="83"/>
       <c r="Q17" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R17" s="78"/>
       <c r="S17" s="6"/>
@@ -7612,7 +7632,7 @@
       </c>
       <c r="D37" s="99">
         <f t="shared" si="1"/>
-        <v>1485</v>
+        <v>1525</v>
       </c>
       <c r="E37" s="99">
         <f t="shared" si="1"/>
@@ -7632,11 +7652,11 @@
       </c>
       <c r="I37" s="99">
         <f t="shared" si="1"/>
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="J37" s="99">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="K37" s="99">
         <f t="shared" si="1"/>
@@ -7664,7 +7684,7 @@
       </c>
       <c r="Q37" s="101">
         <f>SUM(Q6:Q36)</f>
-        <v>33395</v>
+        <v>33470</v>
       </c>
       <c r="S37" s="225" t="s">
         <v>43</v>
@@ -9668,6 +9688,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9684,9 +9707,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9727,15 +9747,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="355"/>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="355"/>
-      <c r="F1" s="355"/>
-      <c r="G1" s="355"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
       <c r="H1" s="58"/>
       <c r="I1" s="139"/>
       <c r="J1" s="139"/>
@@ -9828,15 +9848,15 @@
       <c r="CS1" s="134"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="358" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
+      <c r="B2" s="358"/>
+      <c r="C2" s="358"/>
+      <c r="D2" s="358"/>
+      <c r="E2" s="358"/>
+      <c r="F2" s="358"/>
+      <c r="G2" s="358"/>
       <c r="H2" s="58"/>
       <c r="I2" s="139"/>
       <c r="J2" s="139"/>
@@ -9929,15 +9949,15 @@
       <c r="CS2" s="134"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="359" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
+      <c r="B3" s="359"/>
+      <c r="C3" s="359"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="359"/>
       <c r="H3" s="58"/>
       <c r="I3" s="139"/>
       <c r="J3" s="139"/>
@@ -11024,7 +11044,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="178" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="47">
         <v>554100</v>
@@ -11134,7 +11154,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="47">
         <v>391740</v>
@@ -11244,7 +11264,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="47">
         <v>203650</v>
@@ -11354,7 +11374,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="178" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="47">
         <v>306940</v>
@@ -13311,12 +13331,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="129"/>
-      <c r="B35" s="352" t="s">
+      <c r="B35" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="352"/>
-      <c r="D35" s="352"/>
-      <c r="E35" s="352"/>
+      <c r="C35" s="354"/>
+      <c r="D35" s="354"/>
+      <c r="E35" s="354"/>
       <c r="F35" s="130"/>
       <c r="G35" s="135"/>
       <c r="H35" s="135"/>
@@ -13524,19 +13544,19 @@
     </row>
     <row r="37" spans="1:97">
       <c r="A37" s="180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="236" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="236" t="s">
+      <c r="C37" s="313" t="s">
         <v>179</v>
-      </c>
-      <c r="C37" s="313" t="s">
-        <v>180</v>
       </c>
       <c r="D37" s="203">
         <v>132540</v>
       </c>
       <c r="E37" s="314" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F37" s="130"/>
       <c r="G37" s="135"/>
@@ -13645,7 +13665,7 @@
         <v>9140</v>
       </c>
       <c r="E38" s="172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F38" s="128"/>
       <c r="G38" s="135"/>
@@ -13745,14 +13765,14 @@
         <v>102</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="116"/>
       <c r="D39" s="204">
         <v>1000</v>
       </c>
       <c r="E39" s="172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="128"/>
       <c r="G39" s="135"/>
@@ -13849,19 +13869,19 @@
     </row>
     <row r="40" spans="1:97">
       <c r="A40" s="180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="B40" s="117" t="s">
-        <v>182</v>
-      </c>
       <c r="C40" s="116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="204">
         <v>331120</v>
       </c>
       <c r="E40" s="172" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F40" s="128"/>
       <c r="G40" s="141"/>
@@ -13958,19 +13978,19 @@
     </row>
     <row r="41" spans="1:97">
       <c r="A41" s="180" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="C41" s="116" t="s">
         <v>194</v>
-      </c>
-      <c r="C41" s="116" t="s">
-        <v>195</v>
       </c>
       <c r="D41" s="204">
         <v>33960</v>
       </c>
       <c r="E41" s="173" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F41" s="133"/>
       <c r="G41" s="142" t="s">
@@ -14175,10 +14195,10 @@
       <c r="D43" s="204"/>
       <c r="E43" s="172"/>
       <c r="F43" s="130"/>
-      <c r="G43" s="353"/>
-      <c r="H43" s="353"/>
-      <c r="I43" s="353"/>
-      <c r="J43" s="353"/>
+      <c r="G43" s="355"/>
+      <c r="H43" s="355"/>
+      <c r="I43" s="355"/>
+      <c r="J43" s="355"/>
       <c r="K43" s="58"/>
       <c r="L43" s="139"/>
       <c r="M43" s="58"/>
@@ -14846,14 +14866,14 @@
         <v>104</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C49" s="116"/>
       <c r="D49" s="206">
         <v>40000</v>
       </c>
       <c r="E49" s="176" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F49" s="128"/>
       <c r="G49" s="134"/>
@@ -15089,7 +15109,7 @@
         <v>78400</v>
       </c>
       <c r="E51" s="176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F51" s="128"/>
       <c r="G51" s="134"/>
@@ -15325,7 +15345,7 @@
         <v>174000</v>
       </c>
       <c r="E53" s="175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F53" s="128"/>
       <c r="G53" s="134"/>
@@ -15443,7 +15463,7 @@
         <v>233000</v>
       </c>
       <c r="E54" s="176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F54" s="128"/>
       <c r="G54" s="134"/>
@@ -15561,7 +15581,7 @@
         <v>75390</v>
       </c>
       <c r="E55" s="174" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F55" s="128"/>
       <c r="G55" s="134"/>
@@ -15915,7 +15935,7 @@
         <v>305270</v>
       </c>
       <c r="E58" s="175" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F58" s="128"/>
       <c r="G58" s="134"/>
@@ -16033,7 +16053,7 @@
         <v>170840</v>
       </c>
       <c r="E59" s="174" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F59" s="128"/>
       <c r="G59" s="134"/>
@@ -16269,7 +16289,7 @@
         <v>278180</v>
       </c>
       <c r="E61" s="174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F61" s="130"/>
       <c r="G61" s="134"/>
@@ -16505,7 +16525,7 @@
         <v>95450</v>
       </c>
       <c r="E63" s="174" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F63" s="128"/>
       <c r="G63" s="134"/>
@@ -16625,7 +16645,7 @@
         <v>100000</v>
       </c>
       <c r="E64" s="174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F64" s="128"/>
       <c r="G64" s="134"/>
@@ -22252,11 +22272,11 @@
       <c r="CS118" s="134"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="350" t="s">
+      <c r="A119" s="352" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="351"/>
-      <c r="C119" s="354"/>
+      <c r="B119" s="353"/>
+      <c r="C119" s="356"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
         <v>3345230</v>
@@ -22461,11 +22481,11 @@
       <c r="CS120" s="134"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="350" t="s">
+      <c r="A121" s="352" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="351"/>
-      <c r="C121" s="351"/>
+      <c r="B121" s="353"/>
+      <c r="C121" s="353"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
         <v>3345230</v>
@@ -33700,7 +33720,7 @@
   <dimension ref="A1:Q219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33717,35 +33737,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="360" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="360"/>
+      <c r="B1" s="361"/>
+      <c r="C1" s="361"/>
+      <c r="D1" s="361"/>
+      <c r="E1" s="362"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="20.25">
-      <c r="A2" s="367" t="s">
+      <c r="A2" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="369"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="371"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="361" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="363"/>
+      <c r="A3" s="363" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="365"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33760,13 +33780,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="372" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="371"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="372"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="374"/>
       <c r="F4" s="5"/>
       <c r="G4" s="42"/>
       <c r="H4" s="7"/>
@@ -33792,7 +33812,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="271">
-        <v>8892050</v>
+        <v>8874570</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="257"/>
@@ -33812,7 +33832,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="242">
-        <v>76510</v>
+        <v>76950</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="39" t="s">
@@ -33842,7 +33862,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="273">
-        <v>552985</v>
+        <v>570830</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="253"/>
@@ -33900,7 +33920,7 @@
         <v>140</v>
       </c>
       <c r="B10" s="242">
-        <v>33395</v>
+        <v>33470</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39" t="s">
@@ -33955,7 +33975,7 @@
       </c>
       <c r="B12" s="306">
         <f>B6+B7+B8-B10-B11</f>
-        <v>43115</v>
+        <v>43480</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="39" t="s">
@@ -34030,7 +34050,7 @@
       <c r="B15" s="242"/>
       <c r="C15" s="40"/>
       <c r="D15" s="329" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="330">
         <v>92540</v>
@@ -34054,7 +34074,7 @@
       </c>
       <c r="B16" s="243">
         <f>B5+B6+B7+B8-B10-B11-B14-B15</f>
-        <v>13043115</v>
+        <v>13043480</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40" t="s">
@@ -34062,7 +34082,7 @@
       </c>
       <c r="E16" s="276">
         <f>E5+E6+E10+E11+E12+E7+E13+E14+E15</f>
-        <v>13043115</v>
+        <v>13043480</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="110">
@@ -34102,13 +34122,13 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A18" s="364" t="s">
+      <c r="A18" s="366" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="365"/>
-      <c r="C18" s="365"/>
-      <c r="D18" s="365"/>
-      <c r="E18" s="366"/>
+      <c r="B18" s="367"/>
+      <c r="C18" s="367"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="368"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
@@ -34202,7 +34222,7 @@
     </row>
     <row r="22" spans="1:17" ht="21.75">
       <c r="A22" s="280" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="118">
         <v>40000</v>
@@ -34383,10 +34403,10 @@
         <v>100000</v>
       </c>
       <c r="C29" s="317"/>
-      <c r="D29" s="373" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="374">
+      <c r="D29" s="331" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="332">
         <v>33960</v>
       </c>
       <c r="H29" s="7"/>
@@ -34402,14 +34422,14 @@
     </row>
     <row r="30" spans="1:17" ht="22.5" thickBot="1">
       <c r="A30" s="320" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="321">
         <v>331120</v>
       </c>
       <c r="C30" s="322"/>
       <c r="D30" s="323" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="324">
         <v>132540</v>
